--- a/TA bab 1-4/uji 200x belajar aimdata graphic.xlsx
+++ b/TA bab 1-4/uji 200x belajar aimdata graphic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,12 +131,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>My</a:t>
+              <a:t>My Bot</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Bot 1</a:t>
+              <a:t> 1</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -248,34 +249,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>710.79</c:v>
+                  <c:v>682.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>391.69</c:v>
+                  <c:v>382.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1209.43</c:v>
+                  <c:v>698.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>795.92</c:v>
+                  <c:v>747.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>549.33000000000004</c:v>
+                  <c:v>1491.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>222.72</c:v>
+                  <c:v>1910.56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>506.01</c:v>
+                  <c:v>574.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>599.11</c:v>
+                  <c:v>1145.46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1169.3900000000001</c:v>
+                  <c:v>1987.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>499.8</c:v>
+                  <c:v>907.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -283,7 +284,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D395-4C3A-9B60-2210A039820F}"/>
+              <c16:uniqueId val="{00000000-50C7-464C-9120-E87EFDEB772E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -296,11 +297,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1228895631"/>
-        <c:axId val="1228898127"/>
+        <c:axId val="1784173216"/>
+        <c:axId val="1784172384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1228895631"/>
+        <c:axId val="1784173216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,7 +344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228898127"/>
+        <c:crossAx val="1784172384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -351,7 +352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1228898127"/>
+        <c:axId val="1784172384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228895631"/>
+        <c:crossAx val="1784173216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -599,34 +600,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>954</c:v>
+                  <c:v>849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>950.1</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389</c:v>
+                  <c:v>1052.3599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2013.07</c:v>
+                  <c:v>1337.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>956</c:v>
+                  <c:v>1368.43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>849</c:v>
+                  <c:v>414.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>846</c:v>
+                  <c:v>1155.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>960</c:v>
+                  <c:v>1286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1390</c:v>
+                  <c:v>1056.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1170</c:v>
+                  <c:v>1262.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,7 +635,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C87-4763-A5A9-6280DA4905C7}"/>
+              <c16:uniqueId val="{00000000-FFD8-4A12-93C5-8BFFC5FABE40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,11 +648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1230273103"/>
-        <c:axId val="1230271855"/>
+        <c:axId val="1830089392"/>
+        <c:axId val="1830092304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1230273103"/>
+        <c:axId val="1830089392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1230271855"/>
+        <c:crossAx val="1830092304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -702,7 +703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1230271855"/>
+        <c:axId val="1830092304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1230273103"/>
+        <c:crossAx val="1830089392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -837,11 +838,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>My</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Bot 3</a:t>
+              <a:t>My Bot 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -954,34 +951,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2096.98</c:v>
+                  <c:v>1934.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2635.75</c:v>
+                  <c:v>2055.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1215.46</c:v>
+                  <c:v>1778.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1058.9000000000001</c:v>
+                  <c:v>1470.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2192.9299999999998</c:v>
+                  <c:v>1047.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2326.0300000000002</c:v>
+                  <c:v>1588.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2405.7199999999998</c:v>
+                  <c:v>2057.0100000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2055.91</c:v>
+                  <c:v>1499.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1160.73</c:v>
+                  <c:v>937.93</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2034.03</c:v>
+                  <c:v>1588.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,7 +986,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A55-4C9E-AD7E-8DAEA5E0EB4D}"/>
+              <c16:uniqueId val="{00000000-2B0C-4C56-871C-F3CBB1ACC276}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1002,11 +999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1229151167"/>
-        <c:axId val="1229153247"/>
+        <c:axId val="1830088976"/>
+        <c:axId val="1830089808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1229151167"/>
+        <c:axId val="1830088976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1229153247"/>
+        <c:crossAx val="1830089808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1229153247"/>
+        <c:axId val="1830089808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1229151167"/>
+        <c:crossAx val="1830088976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2830,15 +2827,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2860,15 +2857,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2890,15 +2887,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3185,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3228,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>710.79</v>
+        <v>682.19</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -3237,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>954</v>
+        <v>849</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
@@ -3246,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2096.98</v>
+        <v>1934.74</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -3257,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>391.69</v>
+        <v>382.61</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -3266,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>950.1</v>
+        <v>1175</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
@@ -3275,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>2635.75</v>
+        <v>2055.98</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -3286,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1209.43</v>
+        <v>698.65</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -3295,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>1389</v>
+        <v>1052.3599999999999</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
@@ -3304,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>1215.46</v>
+        <v>1778.74</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -3315,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>795.92</v>
+        <v>747.69</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -3324,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>2013.07</v>
+        <v>1337.06</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
@@ -3333,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>1058.9000000000001</v>
+        <v>1470.48</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -3344,7 +3341,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>549.33000000000004</v>
+        <v>1491.12</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -3353,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>956</v>
+        <v>1368.43</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
@@ -3362,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>2192.9299999999998</v>
+        <v>1047.07</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -3373,7 +3370,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>222.72</v>
+        <v>1910.56</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -3382,7 +3379,7 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>849</v>
+        <v>414.36</v>
       </c>
       <c r="J7" t="s">
         <v>2</v>
@@ -3391,7 +3388,7 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <v>2326.0300000000002</v>
+        <v>1588.11</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -3402,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>506.01</v>
+        <v>574.52</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -3411,7 +3408,7 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>846</v>
+        <v>1155.45</v>
       </c>
       <c r="J8" t="s">
         <v>2</v>
@@ -3420,7 +3417,7 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>2405.7199999999998</v>
+        <v>2057.0100000000002</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -3431,7 +3428,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>599.11</v>
+        <v>1145.46</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -3440,7 +3437,7 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>960</v>
+        <v>1286</v>
       </c>
       <c r="J9" t="s">
         <v>2</v>
@@ -3449,7 +3446,7 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>2055.91</v>
+        <v>1499.76</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -3460,7 +3457,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>1169.3900000000001</v>
+        <v>1987.18</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -3469,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>1390</v>
+        <v>1056.45</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -3478,7 +3475,7 @@
         <v>9</v>
       </c>
       <c r="L10">
-        <v>1160.73</v>
+        <v>937.93</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -3489,7 +3486,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>499.8</v>
+        <v>907.07</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -3498,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <v>1170</v>
+        <v>1262.81</v>
       </c>
       <c r="J11" t="s">
         <v>2</v>
@@ -3507,7 +3504,7 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>2034.03</v>
+        <v>1588.05</v>
       </c>
     </row>
   </sheetData>
